--- a/Replication files/Decile Analysis/Coefficient Tables/tau_cutoffs.xlsx
+++ b/Replication files/Decile Analysis/Coefficient Tables/tau_cutoffs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Tau</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">Model: Logged total FDI on passengers in change pct, controlled by ln battle fatalities and log real GDP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model: Logged total FDI on passengers in change pct, with same controls as above AND country fixed effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model: Logged total FDI on passengers in change pct.</t>
   </si>
 </sst>
 </file>
@@ -771,208 +765,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-9.61403265736726</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-1.71031530404548</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.98798570747879</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B63" t="n">
-        <v>8.3797593630282</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B64" t="n">
-        <v>16.8554797110223</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-9.61403265736726</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-1.71031530404548</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.98798570747879</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8.3797593630282</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B77" t="n">
-        <v>16.8554797110223</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
